--- a/08_Protect_Mode/12 调用门(有参) 段选择子技巧.xlsx
+++ b/08_Protect_Mode/12 调用门(有参) 段选择子技巧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA88B1CE-CAB8-4BD7-AFED-80D3592D31C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A83A80-2364-45B7-93F4-BF0222930DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eq 80b99048 0040ec03`00081000</t>
-  </si>
-  <si>
     <t>// win 7 x32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1032,6 +1029,10 @@
       </rPr>
       <t>、调用门总结：</t>
     </r>
+  </si>
+  <si>
+    <t>eq 80b99048 0040ec03`00081000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1678,7 +1679,7 @@
   <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1691,77 +1692,77 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1779,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE7C0F0-0278-4F80-80EE-F3701FA4F34B}">
   <dimension ref="B3:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1792,23 +1793,23 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
         <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1821,7 +1822,7 @@
     </row>
     <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1834,7 +1835,7 @@
     </row>
     <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1858,7 +1859,7 @@
     </row>
     <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1871,7 +1872,7 @@
     </row>
     <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1884,7 +1885,7 @@
     </row>
     <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1897,7 +1898,7 @@
     </row>
     <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1910,7 +1911,7 @@
     </row>
     <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1923,7 +1924,7 @@
     </row>
     <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1936,7 +1937,7 @@
     </row>
     <row r="19" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1949,7 +1950,7 @@
     </row>
     <row r="20" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1962,7 +1963,7 @@
     </row>
     <row r="21" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1986,7 +1987,7 @@
     </row>
     <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1999,7 +2000,7 @@
     </row>
     <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2023,7 +2024,7 @@
     </row>
     <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2036,7 +2037,7 @@
     </row>
     <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2049,7 +2050,7 @@
     </row>
     <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2062,7 +2063,7 @@
     </row>
     <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2075,7 +2076,7 @@
     </row>
     <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2088,7 +2089,7 @@
     </row>
     <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2112,7 +2113,7 @@
     </row>
     <row r="33" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2125,7 +2126,7 @@
     </row>
     <row r="34" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2138,7 +2139,7 @@
     </row>
     <row r="35" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -2151,7 +2152,7 @@
     </row>
     <row r="36" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2164,7 +2165,7 @@
     </row>
     <row r="37" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2199,7 +2200,7 @@
     </row>
     <row r="40" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2212,7 +2213,7 @@
     </row>
     <row r="41" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2225,7 +2226,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2249,7 +2250,7 @@
     </row>
     <row r="44" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2262,7 +2263,7 @@
     </row>
     <row r="45" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2275,7 +2276,7 @@
     </row>
     <row r="46" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2299,7 +2300,7 @@
     </row>
     <row r="48" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2312,7 +2313,7 @@
     </row>
     <row r="49" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2325,12 +2326,12 @@
     </row>
     <row r="50" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -2340,7 +2341,7 @@
     </row>
     <row r="51" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2353,7 +2354,7 @@
     </row>
     <row r="52" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2366,7 +2367,7 @@
     </row>
     <row r="53" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2379,7 +2380,7 @@
     </row>
     <row r="54" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2403,7 +2404,7 @@
     </row>
     <row r="56" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2416,7 +2417,7 @@
     </row>
     <row r="57" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2429,7 +2430,7 @@
     </row>
     <row r="58" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -2442,7 +2443,7 @@
     </row>
     <row r="59" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2455,7 +2456,7 @@
     </row>
     <row r="60" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2469,7 +2470,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
